--- a/medicine/Psychotrope/Bouvier_(cépage)/Bouvier_(cépage).xlsx
+++ b/medicine/Psychotrope/Bouvier_(cépage)/Bouvier_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouvier_(c%C3%A9page)</t>
+          <t>Bouvier_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Bouvier est un cépage blanc que l’on trouve en Europe centrale : Autriche, Hongrie, Slovaquie et Slovénie. C’est également un cépage de table[1]. Appelé aussi Findling, il serait une mutation naturelle du Müller-thurgau.
+Le Bouvier est un cépage blanc que l’on trouve en Europe centrale : Autriche, Hongrie, Slovaquie et Slovénie. C’est également un cépage de table. Appelé aussi Findling, il serait une mutation naturelle du Müller-thurgau.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouvier_(c%C3%A9page)</t>
+          <t>Bouvier_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Il est issu d'un métissage de parents inconnus, réalisé par le propriétaire du domaine « C. Bouvier de Radkersburg », en 1900[1].
-Géographique
-Il est essentiellement cultivé en Autriche, dans les vignobles de Styrie et Burgenland. Il a aussi été introduit en Hongrie, Slovénie et Croatie[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est issu d'un métissage de parents inconnus, réalisé par le propriétaire du domaine « C. Bouvier de Radkersburg », en 1900.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouvier_(c%C3%A9page)</t>
+          <t>Bouvier_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Synonymes</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bela Ranina, Bela Ranka, Boouvierovo Grozno, Bouvier Précoce, Bouvier Trante Weisse, Bouvier Traube Weisse, Bouvierovo Grozno, Bouvierovo Hrozno, Bouvierovo Ranina, Bouvierrebe, Bouviertraube, Bouviertraube Weisse, Bouvieruv Hrozen, Bouvijejeva Ranka, Bovije, Buveleova Ranka, Buvie, Buvierov Hrozen, Buvije, Buvijeova Ranina, Buvijeova Ranka, Buvijeva Ranka, Buvileova Ranka, Chasselas Bouvier, Kimmig Kp 1, Précoce de Bouvier, Précoce de Bouvier Bianco, Précoce de Bouvier Blanc, Précoce di Bouvier Bianco, Radgonska, Ranina, Ragdonska Ranina Bela, Ranina, Ranina Bela, Ranka, Sasla Buvije.
+          <t>Géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est essentiellement cultivé en Autriche, dans les vignobles de Styrie et Burgenland. Il a aussi été introduit en Hongrie, Slovénie et Croatie.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouvier_(c%C3%A9page)</t>
+          <t>Bouvier_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Caractères ampélographiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bouvier a un bourgeonnement cotonneux, bordé de rouge. Les feuilles sont vert clair, de tailles moyennes, sont à 3 ou 5 lobes, profondément découpées. Les baies sont rondes, jaunes, dorées côté soleil et craquantes à goût de muscat[1].
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bela Ranina, Bela Ranka, Boouvierovo Grozno, Bouvier Précoce, Bouvier Trante Weisse, Bouvier Traube Weisse, Bouvierovo Grozno, Bouvierovo Hrozno, Bouvierovo Ranina, Bouvierrebe, Bouviertraube, Bouviertraube Weisse, Bouvieruv Hrozen, Bouvijejeva Ranka, Bovije, Buveleova Ranka, Buvie, Buvierov Hrozen, Buvije, Buvijeova Ranina, Buvijeova Ranka, Buvijeva Ranka, Buvileova Ranka, Chasselas Bouvier, Kimmig Kp 1, Précoce de Bouvier, Précoce de Bouvier Bianco, Précoce de Bouvier Blanc, Précoce di Bouvier Bianco, Radgonska, Ranina, Ragdonska Ranina Bela, Ranina, Ranina Bela, Ranka, Sasla Buvije.
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bouvier_(c%C3%A9page)</t>
+          <t>Bouvier_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,17 +628,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractères ampélographiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bouvier a un bourgeonnement cotonneux, bordé de rouge. Les feuilles sont vert clair, de tailles moyennes, sont à 3 ou 5 lobes, profondément découpées. Les baies sont rondes, jaunes, dorées côté soleil et craquantes à goût de muscat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bouvier_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouvier_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Moyennement vigoureux, ce cépage est tolérant à des sols très variés, même s'il les préfère profonds et craint la chlorose (attention aux terrains calcaires).
-Sensibilité
-Il est relativement résistant à la pourriture grise grâce à sa pellicule épaisse.
-Technologiques
-Le vin qui en est issu est léger, avec l'arôme de muscat plus ou moins prononcé selon le terroir. Il est souvent vinifié avec du sucre résiduel et en Croatie, il est nommé lait du tigre[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moyennement vigoureux, ce cépage est tolérant à des sols très variés, même s'il les préfère profonds et craint la chlorose (attention aux terrains calcaires).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bouvier_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouvier_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sensibilité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est relativement résistant à la pourriture grise grâce à sa pellicule épaisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bouvier_(cépage)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bouvier_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vin qui en est issu est léger, avec l'arôme de muscat plus ou moins prononcé selon le terroir. Il est souvent vinifié avec du sucre résiduel et en Croatie, il est nommé lait du tigre.
 </t>
         </is>
       </c>
